--- a/MySQL/18-MySQL分库分表.xlsx
+++ b/MySQL/18-MySQL分库分表.xlsx
@@ -34,6 +34,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.事务对多个库均有操作，</t>
     </r>
     <r>
@@ -213,13 +221,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>等常用字段，将所有分库分表的订单信息都放入次表，查询的时候先查询此表在进行后续操作</t>
+      <t>等常用字段，将所有分库分表的订单信息都放入次表，查询的时候先查询此表在进行后续操作，添加数据的时候先在此表添加数据，在获取到主键id后再进行添加数据</t>
     </r>
   </si>
   <si>
     <t>2.分页</t>
   </si>
   <si>
+    <t>5.主键不能自增，保证id数据唯一</t>
+  </si>
+  <si>
+    <t>6.主键不能自增，主键从哪里来？</t>
+  </si>
+  <si>
     <t>3.统计</t>
   </si>
   <si>
@@ -232,12 +246,6 @@
     <t>1.单表查询在进行拼接、2.ES(elasticsearch)搜索引擎，可能造成消耗资源过多(占用内存多)</t>
   </si>
   <si>
-    <t>5.主键不能自增，保证id数据唯一</t>
-  </si>
-  <si>
-    <t>6.主键不能自增，主键从哪里来？</t>
-  </si>
-  <si>
     <t>分表：</t>
   </si>
   <si>
@@ -272,6 +280,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>①：按时间切分月、年等【</t>
     </r>
     <r>
@@ -299,6 +315,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>②：每张表存储一定量的数据【</t>
     </r>
     <r>
@@ -329,6 +353,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>④：根据主键id hash取模[</t>
     </r>
     <r>
@@ -365,7 +397,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,15 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,13 +481,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,6 +492,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -482,6 +545,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -489,18 +575,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,46 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,21 +614,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF171CFF"/>
       <name val="宋体"/>
@@ -637,19 +662,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,163 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,6 +853,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,6 +887,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -861,17 +916,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,21 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -917,168 +953,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,9 +1128,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1117,12 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1269,6 +1285,106 @@
         <a:xfrm flipV="1">
           <a:off x="3657600" y="2527300"/>
           <a:ext cx="2619375" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5641975" y="2517775"/>
+          <a:ext cx="625475" cy="831850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5686425" y="2517775"/>
+          <a:ext cx="581025" cy="501650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1590,7 +1706,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:K11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
@@ -1715,74 +1831,54 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" customHeight="1" spans="2:11">
+    <row r="10" customHeight="1" spans="2:4">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:11">
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:10">
+    </row>
+    <row r="12" customHeight="1" spans="2:11">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:10">
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:11">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:10">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:2">
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="2" t="s">
@@ -1790,7 +1886,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1806,29 +1902,29 @@
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" customHeight="1" spans="2:4">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" customHeight="1" spans="2:4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1841,7 +1937,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1852,7 +1948,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1862,7 +1958,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1872,10 +1968,10 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:K5"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
